--- a/public/ImportarExcel.xlsx
+++ b/public/ImportarExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\protocrm3\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\isefcrm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>Apellido Materno:</t>
   </si>
@@ -518,12 +518,18 @@
   <si>
     <t>Al momento de guardar</t>
   </si>
+  <si>
+    <t>SubSede</t>
+  </si>
+  <si>
+    <t>subsede</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +570,15 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -657,6 +672,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +693,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,6 +768,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -785,6 +820,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -961,46 +1013,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="18.875" customWidth="1"/>
-    <col min="17" max="17" width="19.375" customWidth="1"/>
-    <col min="18" max="18" width="15.375" customWidth="1"/>
-    <col min="19" max="19" width="14.375" customWidth="1"/>
-    <col min="21" max="21" width="16.125" customWidth="1"/>
-    <col min="22" max="22" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="15.25" customWidth="1"/>
-    <col min="25" max="25" width="17.75" customWidth="1"/>
-    <col min="26" max="26" width="14.75" customWidth="1"/>
-    <col min="29" max="29" width="17.75" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
     <col min="30" max="30" width="19" customWidth="1"/>
-    <col min="31" max="31" width="20.375" customWidth="1"/>
-    <col min="32" max="32" width="21.25" customWidth="1"/>
-    <col min="33" max="33" width="20.125" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" customWidth="1"/>
+    <col min="32" max="32" width="21.28515625" customWidth="1"/>
+    <col min="33" max="33" width="20.140625" customWidth="1"/>
     <col min="34" max="34" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="7" customFormat="1" ht="2.25" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="7" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>102</v>
       </c>
@@ -1103,8 +1155,11 @@
       <c r="AH1" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" ht="38.25">
+      <c r="AI1" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>88</v>
       </c>
@@ -1207,8 +1262,11 @@
       <c r="AH2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AI2" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>138</v>
       </c>
@@ -1253,8 +1311,9 @@
       <c r="AH3" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" s="10"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1289,40 +1348,41 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AI4" s="10"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
       <c r="X12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="X13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:34" s="2" customFormat="1">
+    <row r="15" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:34" s="2" customFormat="1">
+    <row r="16" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1356,7 +1416,7 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1388,7 +1448,7 @@
       <c r="AC17" s="4"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1420,7 +1480,7 @@
       <c r="AC18" s="4"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1452,7 +1512,7 @@
       <c r="AC19" s="4"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1">
+    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1484,7 +1544,7 @@
       <c r="AC20" s="4"/>
       <c r="AG20" s="6"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1">
+    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1516,7 +1576,7 @@
       <c r="AC21" s="4"/>
       <c r="AG21" s="6"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1">
+    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1548,7 +1608,7 @@
       <c r="AC22" s="4"/>
       <c r="AG22" s="6"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1">
+    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1580,7 +1640,7 @@
       <c r="AC23" s="4"/>
       <c r="AG23" s="6"/>
     </row>
-    <row r="24" spans="1:33" s="2" customFormat="1">
+    <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1612,7 +1672,7 @@
       <c r="AC24" s="4"/>
       <c r="AG24" s="6"/>
     </row>
-    <row r="25" spans="1:33" s="2" customFormat="1">
+    <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1644,7 +1704,7 @@
       <c r="AC25" s="4"/>
       <c r="AG25" s="6"/>
     </row>
-    <row r="26" spans="1:33" s="2" customFormat="1">
+    <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1676,7 +1736,7 @@
       <c r="AC26" s="4"/>
       <c r="AG26" s="6"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1">
+    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1708,7 +1768,7 @@
       <c r="AC27" s="4"/>
       <c r="AG27" s="6"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1740,7 +1800,7 @@
       <c r="AC28" s="4"/>
       <c r="AG28" s="6"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1">
+    <row r="29" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1767,7 +1827,7 @@
       <c r="X29" s="4"/>
       <c r="AG29" s="6"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1794,7 +1854,7 @@
       <c r="X30" s="4"/>
       <c r="AG30" s="6"/>
     </row>
-    <row r="31" spans="1:33" s="2" customFormat="1">
+    <row r="31" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1821,7 +1881,7 @@
       <c r="X31" s="4"/>
       <c r="AG31" s="6"/>
     </row>
-    <row r="32" spans="1:33" s="2" customFormat="1">
+    <row r="32" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1848,7 +1908,7 @@
       <c r="X32" s="4"/>
       <c r="AG32" s="6"/>
     </row>
-    <row r="33" spans="1:24" s="2" customFormat="1">
+    <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1874,7 +1934,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:24" s="2" customFormat="1">
+    <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1900,81 +1960,81 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:24" s="2" customFormat="1"/>
-    <row r="36" spans="1:24" s="2" customFormat="1"/>
-    <row r="37" spans="1:24" s="2" customFormat="1"/>
-    <row r="38" spans="1:24" s="2" customFormat="1"/>
-    <row r="39" spans="1:24" s="2" customFormat="1"/>
-    <row r="40" spans="1:24" s="2" customFormat="1"/>
-    <row r="41" spans="1:24" s="2" customFormat="1"/>
-    <row r="42" spans="1:24" s="2" customFormat="1"/>
-    <row r="43" spans="1:24" s="2" customFormat="1"/>
-    <row r="44" spans="1:24" s="2" customFormat="1"/>
-    <row r="45" spans="1:24" s="2" customFormat="1"/>
-    <row r="46" spans="1:24" s="2" customFormat="1"/>
-    <row r="47" spans="1:24" s="2" customFormat="1"/>
-    <row r="48" spans="1:24" s="2" customFormat="1"/>
-    <row r="49" spans="30:30" s="2" customFormat="1"/>
-    <row r="50" spans="30:30" s="2" customFormat="1"/>
-    <row r="51" spans="30:30" s="2" customFormat="1"/>
-    <row r="52" spans="30:30" s="2" customFormat="1"/>
-    <row r="53" spans="30:30" s="2" customFormat="1"/>
-    <row r="54" spans="30:30" s="2" customFormat="1"/>
-    <row r="55" spans="30:30" s="2" customFormat="1"/>
-    <row r="56" spans="30:30" s="2" customFormat="1"/>
-    <row r="57" spans="30:30" s="2" customFormat="1"/>
-    <row r="58" spans="30:30" s="2" customFormat="1"/>
-    <row r="59" spans="30:30" s="2" customFormat="1"/>
-    <row r="60" spans="30:30" s="2" customFormat="1">
+    <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="30:30" s="2" customFormat="1">
+    <row r="61" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="30:30" s="2" customFormat="1"/>
-    <row r="63" spans="30:30">
+    <row r="62" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="30:30">
+    <row r="64" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="30:30">
+    <row r="65" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="30:30">
+    <row r="66" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="30:30">
+    <row r="67" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="30:30">
+    <row r="68" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="30:30">
+    <row r="69" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="30:30">
+    <row r="70" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="30:30">
+    <row r="71" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="30:30">
+    <row r="72" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="30:30">
+    <row r="73" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="30:30">
+    <row r="74" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="30:30">
+    <row r="75" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="30:30">
+    <row r="76" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="30:30">
+    <row r="77" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD77" s="1"/>
     </row>
   </sheetData>
@@ -2021,6 +2081,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -2074,9 +2135,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -2108,7 +2169,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -2137,7 +2198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -2166,7 +2227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2192,7 +2253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
@@ -2218,7 +2279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -2241,7 +2302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -2255,7 +2316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -2266,7 +2327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
@@ -2277,7 +2338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2285,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -2293,7 +2354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2301,27 +2362,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="6" t="s">
         <v>39</v>
       </c>
@@ -2337,7 +2398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/ImportarExcel.xlsx
+++ b/public/ImportarExcel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\isefcrm\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\isefcrm\isefcrm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" tabRatio="253"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10332" tabRatio="253"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="171">
   <si>
     <t>Apellido Materno:</t>
   </si>
@@ -224,13 +224,7 @@
     <t>En línea</t>
   </si>
   <si>
-    <t>Ciencias de la Familia</t>
-  </si>
-  <si>
     <t>Ciencias de la Familia para la Consultoría</t>
-  </si>
-  <si>
-    <t>Tanaología</t>
   </si>
   <si>
     <t>Orientación Familiar</t>
@@ -523,6 +517,102 @@
   </si>
   <si>
     <t>subsede</t>
+  </si>
+  <si>
+    <t>Maestría Ciencias de la Familia para la Consultoría</t>
+  </si>
+  <si>
+    <t>Maestría en Ciencias de la Familia</t>
+  </si>
+  <si>
+    <t>Maestría Ciencias de la Familia en línea</t>
+  </si>
+  <si>
+    <t>Pastoral Familiar</t>
+  </si>
+  <si>
+    <t>Licenciatura en Ciencias de la Familia</t>
+  </si>
+  <si>
+    <t>Gottman Nivel 1</t>
+  </si>
+  <si>
+    <t>Resiliencia Familiar para superar desafíos</t>
+  </si>
+  <si>
+    <t>Tanatología</t>
+  </si>
+  <si>
+    <t>en Violencia Familiar</t>
+  </si>
+  <si>
+    <t>Teología del Cuerpo</t>
+  </si>
+  <si>
+    <t>Inteligencia Emocional y Desarrollo Integral</t>
+  </si>
+  <si>
+    <t>Intervención y Mediación de Pareja</t>
+  </si>
+  <si>
+    <t>Comunicación y Coaching Familiar</t>
+  </si>
+  <si>
+    <t>Consultoría Familiar</t>
+  </si>
+  <si>
+    <t>Psicoterápia de Pareja y Mediación</t>
+  </si>
+  <si>
+    <t>Bioética</t>
+  </si>
+  <si>
+    <t>Problemática Contemporánea y Ética Social</t>
+  </si>
+  <si>
+    <t>Técnicas de Consultoría Matrimonial</t>
+  </si>
+  <si>
+    <t>Vida y Pensamiento de Juan Pablo II</t>
+  </si>
+  <si>
+    <t>Desafíos para la Mujer Actual</t>
+  </si>
+  <si>
+    <t>Mediación Familiar</t>
+  </si>
+  <si>
+    <t>Ética de la Comunicación para el Díalogo y el Debate</t>
+  </si>
+  <si>
+    <t>Prevención de Violencia Escolar y Familiar</t>
+  </si>
+  <si>
+    <t>Políticas Públicas con Perspectiva de Familia</t>
+  </si>
+  <si>
+    <t>Geopolítica de la Familia y Desarrollo Sustentable</t>
+  </si>
+  <si>
+    <t>Inteligencia Emocional Aplicado a la Educación de los hijos</t>
+  </si>
+  <si>
+    <t>sin información</t>
+  </si>
+  <si>
+    <t>Gottman Nivel 2</t>
+  </si>
+  <si>
+    <t>MCF/C</t>
+  </si>
+  <si>
+    <t>MCF- En línea</t>
+  </si>
+  <si>
+    <t>LCF</t>
+  </si>
+  <si>
+    <t>Certificación</t>
   </si>
 </sst>
 </file>
@@ -693,7 +783,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1015,162 +1105,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" customWidth="1"/>
+    <col min="22" max="22" width="20.88671875" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" customWidth="1"/>
-    <col min="29" max="29" width="17.7109375" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" customWidth="1"/>
+    <col min="29" max="29" width="17.6640625" customWidth="1"/>
     <col min="30" max="30" width="19" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" customWidth="1"/>
-    <col min="32" max="32" width="21.28515625" customWidth="1"/>
-    <col min="33" max="33" width="20.140625" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" customWidth="1"/>
+    <col min="32" max="32" width="21.33203125" customWidth="1"/>
+    <col min="33" max="33" width="20.109375" customWidth="1"/>
     <col min="34" max="34" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="7" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="7" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="M1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="AE1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="15" t="s">
+      <c r="AF1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>125</v>
-      </c>
       <c r="AI1" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="7" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1</v>
@@ -1188,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>6</v>
@@ -1263,22 +1353,22 @@
         <v>16</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1309,11 +1399,11 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI3" s="10"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1350,39 +1440,39 @@
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="M10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="X12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="X13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="M14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1416,7 +1506,7 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1448,7 +1538,7 @@
       <c r="AC17" s="4"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1480,7 +1570,7 @@
       <c r="AC18" s="4"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1512,7 +1602,7 @@
       <c r="AC19" s="4"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1544,7 +1634,7 @@
       <c r="AC20" s="4"/>
       <c r="AG20" s="6"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1576,7 +1666,7 @@
       <c r="AC21" s="4"/>
       <c r="AG21" s="6"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1608,7 +1698,7 @@
       <c r="AC22" s="4"/>
       <c r="AG22" s="6"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1640,7 +1730,7 @@
       <c r="AC23" s="4"/>
       <c r="AG23" s="6"/>
     </row>
-    <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1672,7 +1762,7 @@
       <c r="AC24" s="4"/>
       <c r="AG24" s="6"/>
     </row>
-    <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1704,7 +1794,7 @@
       <c r="AC25" s="4"/>
       <c r="AG25" s="6"/>
     </row>
-    <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1736,7 +1826,7 @@
       <c r="AC26" s="4"/>
       <c r="AG26" s="6"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1768,7 +1858,7 @@
       <c r="AC27" s="4"/>
       <c r="AG27" s="6"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1800,7 +1890,7 @@
       <c r="AC28" s="4"/>
       <c r="AG28" s="6"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1827,7 +1917,7 @@
       <c r="X29" s="4"/>
       <c r="AG29" s="6"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1854,7 +1944,7 @@
       <c r="X30" s="4"/>
       <c r="AG30" s="6"/>
     </row>
-    <row r="31" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1881,7 +1971,7 @@
       <c r="X31" s="4"/>
       <c r="AG31" s="6"/>
     </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1908,7 +1998,7 @@
       <c r="X32" s="4"/>
       <c r="AG32" s="6"/>
     </row>
-    <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1934,7 +2024,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1960,86 +2050,86 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD77" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>$F$16</formula1>
     </dataValidation>
@@ -2052,11 +2142,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
       <formula1>$W$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1 Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1">
       <formula1>$Y$16:$Y$23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2">
-      <formula1>$Z$16:$Z$22</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>$AA$16:$AA$21</formula1>
@@ -2093,18 +2180,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja2!$D$2:$D$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>Y3:Y5 Y7:Y1609</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Hoja2!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z3:Z5 Z7:Z1579</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Hoja2!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA5 AA7:AA1456</xm:sqref>
@@ -2121,6 +2196,18 @@
           </x14:formula1>
           <xm:sqref>AG3:AG5 AG7:AG1541</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$D$2:$D$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y1:Y1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$E$2:$E$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z1:Z1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2129,47 +2216,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
       </c>
       <c r="I1" t="s">
         <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -2183,22 +2270,22 @@
         <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -2209,7 +2296,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>53</v>
@@ -2218,16 +2305,16 @@
         <v>65</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2235,25 +2322,25 @@
         <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
@@ -2261,25 +2348,25 @@
         <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -2287,22 +2374,22 @@
         <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -2310,81 +2397,206 @@
         <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/ImportarExcel.xlsx
+++ b/public/ImportarExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10332" tabRatio="253"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10332" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
   <si>
     <t>Apellido Materno:</t>
   </si>
@@ -614,11 +614,17 @@
   <si>
     <t>Certificación</t>
   </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Sin Dato</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,11 +1108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="V2" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2129,41 +2135,35 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$U$16:$U$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
-      <formula1>$V$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$W$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$Y$16:$Y$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$AA$16:$AA$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>$AB$16:$AB$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$AC$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>$AG$16:$AG$33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$D$16:$D$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>$E$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -2171,42 +2171,48 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>Hoja2!$B$2:$B$12</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U5 U7:U1268</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
             <xm:f>Hoja2!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA5 AA7:AA1456</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D5 D7:D1801</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Hoja2!$I$2:$I$17</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG5 AG7:AG1541</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>Hoja2!$D$2:$D$33</xm:f>
           </x14:formula1>
           <xm:sqref>Y1:Y1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$11</xm:f>
           </x14:formula1>
           <xm:sqref>Z1:Z1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74BAC3A7-699B-4740-87B6-9C63617328B9}">
+          <x14:formula1>
+            <xm:f>Hoja2!$K$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q1:Q1048576 R1:R1048576 S1:S1048576 V1:V1048576 W1:W1048576 AB1:AB1048576 AC1:AC1048576 AI1:AI1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2215,16 +2221,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2255,8 +2261,11 @@
       <c r="J1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -2284,8 +2293,11 @@
       <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -2389,7 +2401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -2423,7 +2435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -2468,7 +2480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>67</v>
       </c>
@@ -2487,7 +2499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
         <v>148</v>
       </c>
@@ -2495,7 +2507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
         <v>149</v>
       </c>
@@ -2503,7 +2515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
         <v>150</v>
       </c>
@@ -2605,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/public/ImportarExcel.xlsx
+++ b/public/ImportarExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t>Apellido Materno:</t>
   </si>
@@ -513,9 +513,6 @@
     <t>Al momento de guardar</t>
   </si>
   <si>
-    <t>SubSede</t>
-  </si>
-  <si>
     <t>subsede</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>Sin Dato</t>
+  </si>
+  <si>
+    <t>Plantel</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:AI77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V2" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,7 +1252,7 @@
         <v>123</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="7" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1359,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>Hoja2!$B$2:$B$12</xm:f>
@@ -2212,7 +2212,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$K$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1:Q1048576 R1:R1048576 S1:S1048576 V1:V1048576 W1:W1048576 AB1:AB1048576 AC1:AC1048576 AI1:AI1048576</xm:sqref>
+          <xm:sqref>Q1:Q1048576 R1:R1048576 S1:S1048576 V1:V1048576 W1:W1048576 AB1:AB1048576 AC1:AC1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF41E5AE-8B3E-4F93-849B-0D3F0325F755}">
+          <x14:formula1>
+            <xm:f>Hoja2!$L$1:$L$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI1:AI1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2222,15 +2228,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2262,10 +2268,13 @@
         <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -2294,10 +2303,13 @@
         <v>28</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>53</v>
@@ -2326,7 +2338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>70</v>
@@ -2352,7 +2364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>71</v>
@@ -2378,7 +2390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>72</v>
@@ -2401,7 +2413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -2412,13 +2424,13 @@
         <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -2426,16 +2438,16 @@
         <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
@@ -2443,55 +2455,55 @@
         <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>67</v>
       </c>
@@ -2499,25 +2511,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>38</v>
@@ -2525,7 +2537,7 @@
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>39</v>
@@ -2533,32 +2545,32 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
@@ -2568,47 +2580,47 @@
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D25" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D29" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/public/ImportarExcel.xlsx
+++ b/public/ImportarExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10332" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
   <si>
     <t>Apellido Materno:</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>Plantel</t>
+  </si>
+  <si>
+    <t>Extension de interes</t>
   </si>
 </sst>
 </file>
@@ -1115,40 +1118,40 @@
       <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" customWidth="1"/>
-    <col min="22" max="22" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" customWidth="1"/>
-    <col min="29" max="29" width="17.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
     <col min="30" max="30" width="19" customWidth="1"/>
-    <col min="31" max="31" width="20.44140625" customWidth="1"/>
-    <col min="32" max="32" width="21.33203125" customWidth="1"/>
-    <col min="33" max="33" width="20.109375" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" customWidth="1"/>
+    <col min="32" max="32" width="21.28515625" customWidth="1"/>
+    <col min="33" max="33" width="20.140625" customWidth="1"/>
     <col min="34" max="34" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="7" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="7" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>100</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="7" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>86</v>
       </c>
@@ -1359,10 +1362,10 @@
         <v>16</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>136</v>
       </c>
@@ -1409,7 +1412,7 @@
       </c>
       <c r="AI3" s="10"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1446,39 +1449,39 @@
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
       <c r="X12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="X13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1512,7 +1515,7 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1544,7 +1547,7 @@
       <c r="AC17" s="4"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1576,7 +1579,7 @@
       <c r="AC18" s="4"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1608,7 +1611,7 @@
       <c r="AC19" s="4"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1640,7 +1643,7 @@
       <c r="AC20" s="4"/>
       <c r="AG20" s="6"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1672,7 +1675,7 @@
       <c r="AC21" s="4"/>
       <c r="AG21" s="6"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1704,7 +1707,7 @@
       <c r="AC22" s="4"/>
       <c r="AG22" s="6"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1736,7 +1739,7 @@
       <c r="AC23" s="4"/>
       <c r="AG23" s="6"/>
     </row>
-    <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1768,7 +1771,7 @@
       <c r="AC24" s="4"/>
       <c r="AG24" s="6"/>
     </row>
-    <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1800,7 +1803,7 @@
       <c r="AC25" s="4"/>
       <c r="AG25" s="6"/>
     </row>
-    <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1832,7 +1835,7 @@
       <c r="AC26" s="4"/>
       <c r="AG26" s="6"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1864,7 +1867,7 @@
       <c r="AC27" s="4"/>
       <c r="AG27" s="6"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1896,7 +1899,7 @@
       <c r="AC28" s="4"/>
       <c r="AG28" s="6"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1923,7 +1926,7 @@
       <c r="X29" s="4"/>
       <c r="AG29" s="6"/>
     </row>
-    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1950,7 +1953,7 @@
       <c r="X30" s="4"/>
       <c r="AG30" s="6"/>
     </row>
-    <row r="31" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1977,7 +1980,7 @@
       <c r="X31" s="4"/>
       <c r="AG31" s="6"/>
     </row>
-    <row r="32" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2004,7 +2007,7 @@
       <c r="X32" s="4"/>
       <c r="AG32" s="6"/>
     </row>
-    <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2030,7 +2033,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2056,106 +2059,97 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="30:30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="30:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD77" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="10">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$U$16:$U$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$W$16</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$Y$16:$Y$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$AA$16:$AA$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>$AB$16:$AB$22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{00000000-0002-0000-0000-000007000000}">
-      <formula1>$AC$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>$AG$16:$AG$33</formula1>
@@ -2166,6 +2160,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>$E$16</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="W1:W1048576 AB1:AB1048576 AC1:AC1048576" xr:uid="{ABD3BFF1-AFE6-4580-B7FE-B5039D45DA68}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2208,17 +2203,17 @@
           </x14:formula1>
           <xm:sqref>Z1:Z1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74BAC3A7-699B-4740-87B6-9C63617328B9}">
-          <x14:formula1>
-            <xm:f>Hoja2!$K$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q1:Q1048576 R1:R1048576 S1:S1048576 V1:V1048576 W1:W1048576 AB1:AB1048576 AC1:AC1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF41E5AE-8B3E-4F93-849B-0D3F0325F755}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{CF41E5AE-8B3E-4F93-849B-0D3F0325F755}">
           <x14:formula1>
             <xm:f>Hoja2!$L$1:$L$2</xm:f>
           </x14:formula1>
           <xm:sqref>AI1:AI1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{BDE36BF6-5C4B-4687-9ED2-A09E73F8449B}">
+          <x14:formula1>
+            <xm:f>Hoja2!$K$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q1:Q1048576 R1:R1048576 S1:S1048576 V1:V1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2234,9 +2229,9 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2274,7 +2269,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -2309,7 +2304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -2338,7 +2333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
@@ -2390,7 +2385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
@@ -2413,7 +2408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -2430,7 +2425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
@@ -2447,7 +2442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
@@ -2464,7 +2459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2478,7 +2473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -2492,7 +2487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>67</v>
       </c>
@@ -2511,7 +2506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>147</v>
       </c>
@@ -2519,7 +2514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
         <v>148</v>
       </c>
@@ -2527,7 +2522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
         <v>149</v>
       </c>
@@ -2535,7 +2530,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
         <v>150</v>
       </c>
@@ -2543,82 +2538,82 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D31" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="4" t="s">
         <v>165</v>
       </c>
@@ -2634,7 +2629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
